--- a/data/trans_orig/LAWTONB_2R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>39930</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31359</v>
+        <v>30787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51539</v>
+        <v>51061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3095536992662126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2431088725643434</v>
+        <v>0.238676187551018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3995527714327646</v>
+        <v>0.3958502421890435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>112219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97701</v>
+        <v>97493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129389</v>
+        <v>129696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4122477495678258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3589155878998475</v>
+        <v>0.3581527555612644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4753228787398991</v>
+        <v>0.4764534514365087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -786,19 +786,19 @@
         <v>152148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133053</v>
+        <v>133045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170074</v>
+        <v>172694</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3792306003927357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3316361286035643</v>
+        <v>0.3316159744368345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4239096111857376</v>
+        <v>0.4304399589536539</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>89061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77452</v>
+        <v>77930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97632</v>
+        <v>98204</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6904463007337874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6004472285672351</v>
+        <v>0.6041497578109548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7568911274356566</v>
+        <v>0.7613238124489818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -836,19 +836,19 @@
         <v>159993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142823</v>
+        <v>142516</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174511</v>
+        <v>174719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5877522504321742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5246771212601009</v>
+        <v>0.5235465485634915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6410844121001524</v>
+        <v>0.641847244438736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -857,19 +857,19 @@
         <v>249055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>231129</v>
+        <v>228509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>268150</v>
+        <v>268158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6207693996072643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5760903888142624</v>
+        <v>0.5695600410463456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6683638713964357</v>
+        <v>0.6683840255631652</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>51901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40673</v>
+        <v>40857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63202</v>
+        <v>65175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.319284941529455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2502128324557537</v>
+        <v>0.2513439746967441</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3888035410220876</v>
+        <v>0.4009431257341204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>59271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46118</v>
+        <v>47290</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73755</v>
+        <v>71848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2911177389499472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2265142323635796</v>
+        <v>0.2322749190759671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.36225739570205</v>
+        <v>0.3528925255589284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -1003,19 +1003,19 @@
         <v>111172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93611</v>
+        <v>94666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129360</v>
+        <v>129025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.303622716498504</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2556608755157908</v>
+        <v>0.2585425406178405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3532949239480186</v>
+        <v>0.3523791654705545</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>110654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99353</v>
+        <v>97380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121882</v>
+        <v>121698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.680715058470545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6111964589779123</v>
+        <v>0.5990568742658795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7497871675442461</v>
+        <v>0.7486560253032557</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -1053,19 +1053,19 @@
         <v>144326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129842</v>
+        <v>131749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157479</v>
+        <v>156307</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7088822610500528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6377426042979502</v>
+        <v>0.6471074744410716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7734857676364204</v>
+        <v>0.7677250809240329</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>260</v>
@@ -1074,19 +1074,19 @@
         <v>254981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>236793</v>
+        <v>237128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>272542</v>
+        <v>271487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.696377283501496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6467050760519816</v>
+        <v>0.647620834529445</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7443391244842092</v>
+        <v>0.7414574593821595</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16430</v>
+        <v>16841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34908</v>
+        <v>34989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1701859225002049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1133768099245199</v>
+        <v>0.1162151882015809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2408818234647352</v>
+        <v>0.2414401854143505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1199,19 +1199,19 @@
         <v>41732</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32023</v>
+        <v>31376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54643</v>
+        <v>54594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2857031907879184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2192320893329777</v>
+        <v>0.2148037638207296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3740939595295398</v>
+        <v>0.3737631921182533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1220,19 +1220,19 @@
         <v>66395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52084</v>
+        <v>53320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82777</v>
+        <v>81843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2281729834953991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1789911077477256</v>
+        <v>0.1832400564041222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2844743827348919</v>
+        <v>0.2812642232829262</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>120253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110008</v>
+        <v>109927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128486</v>
+        <v>128075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8298140774997951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7591181765352647</v>
+        <v>0.7585598145856496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.88662319007548</v>
+        <v>0.8837848117984192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1270,19 +1270,19 @@
         <v>104335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91424</v>
+        <v>91473</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114044</v>
+        <v>114691</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7142968092120816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6259060404704606</v>
+        <v>0.6262368078817466</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7807679106670227</v>
+        <v>0.7851962361792705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -1291,19 +1291,19 @@
         <v>224589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>208207</v>
+        <v>209141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238900</v>
+        <v>237664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7718270165046009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.715525617265108</v>
+        <v>0.7187357767170737</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8210088922522742</v>
+        <v>0.8167599435958776</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7012</v>
+        <v>6506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18388</v>
+        <v>18403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2353186485339546</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1421088340519943</v>
+        <v>0.1318635383654254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3726565917558138</v>
+        <v>0.3729711420446103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>12008</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6560</v>
+        <v>6630</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18325</v>
+        <v>18790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3060542553438273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1671917830707052</v>
+        <v>0.1689760241059673</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4670459474186558</v>
+        <v>0.4789063595594403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1437,19 +1437,19 @@
         <v>23619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15917</v>
+        <v>16343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32392</v>
+        <v>32545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2666509188838573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796962885548366</v>
+        <v>0.1845074307620203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3657001222553314</v>
+        <v>0.3674259698815621</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>37731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30954</v>
+        <v>30939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42330</v>
+        <v>42836</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7646813514660453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6273434082441862</v>
+        <v>0.6270288579553897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8578911659480056</v>
+        <v>0.8681364616345746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1487,19 +1487,19 @@
         <v>27227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20910</v>
+        <v>20445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32675</v>
+        <v>32605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6939457446561726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5329540525813442</v>
+        <v>0.5210936404405597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8328082169292949</v>
+        <v>0.8310239758940327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1508,19 +1508,19 @@
         <v>64957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56184</v>
+        <v>56031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72659</v>
+        <v>72233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7333490811161426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6342998777446686</v>
+        <v>0.6325740301184379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8203037114451636</v>
+        <v>0.8154925692379797</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>128105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110206</v>
+        <v>109825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146287</v>
+        <v>146823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2636963485402591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2268518388032622</v>
+        <v>0.2260683558385182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3011240960656396</v>
+        <v>0.3022260486221385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>210</v>
@@ -1633,19 +1633,19 @@
         <v>225230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>201585</v>
+        <v>202455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>249280</v>
+        <v>250423</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.340683074105452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3049181114039805</v>
+        <v>0.3062345267986859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3770619632604242</v>
+        <v>0.3787899404927893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>345</v>
@@ -1654,19 +1654,19 @@
         <v>353334</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>319691</v>
+        <v>321092</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>381231</v>
+        <v>386480</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3080734697382276</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.278740113887557</v>
+        <v>0.2799613160555379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3323969092301093</v>
+        <v>0.3369731005879492</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>357699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>339517</v>
+        <v>338981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>375598</v>
+        <v>375979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7363036514597409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6988759039343604</v>
+        <v>0.6977739513778612</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7731481611967379</v>
+        <v>0.7739316441614817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>435</v>
@@ -1704,19 +1704,19 @@
         <v>435882</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>411832</v>
+        <v>410689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>459527</v>
+        <v>458657</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.659316925894548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6229380367395758</v>
+        <v>0.6212100595072106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6950818885960197</v>
+        <v>0.693765473201314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>806</v>
@@ -1725,19 +1725,19 @@
         <v>793582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>765685</v>
+        <v>760436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>827225</v>
+        <v>825824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6919265302617724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6676030907698908</v>
+        <v>0.663026899412051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.721259886112443</v>
+        <v>0.7200386839444622</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>47909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35420</v>
+        <v>37018</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57762</v>
+        <v>60004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3483449125157349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2575393849441124</v>
+        <v>0.2691547113744587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4199848500902072</v>
+        <v>0.4362912354883426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -2090,19 +2090,19 @@
         <v>103508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87655</v>
+        <v>89152</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118307</v>
+        <v>119649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4800179324411126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4064992728289233</v>
+        <v>0.4134433886025302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5486474773642624</v>
+        <v>0.5548721322549433</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -2111,19 +2111,19 @@
         <v>151417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132846</v>
+        <v>132619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170719</v>
+        <v>170964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4287407794261059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3761554232057083</v>
+        <v>0.3755145228771204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.483395882362942</v>
+        <v>0.4840872138071901</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>89624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>79771</v>
+        <v>77529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102113</v>
+        <v>100515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6516550874842651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5800151499097926</v>
+        <v>0.5637087645116572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7424606150558869</v>
+        <v>0.7308452886255408</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -2161,19 +2161,19 @@
         <v>112126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97327</v>
+        <v>95985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127979</v>
+        <v>126482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5199820675588874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4513525226357375</v>
+        <v>0.4451278677450566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5935007271710766</v>
+        <v>0.5865566113974697</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -2182,19 +2182,19 @@
         <v>201750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182448</v>
+        <v>182203</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220321</v>
+        <v>220548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5712592205738941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5166041176370576</v>
+        <v>0.5159127861928099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6238445767942913</v>
+        <v>0.6244854771228794</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>42902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30831</v>
+        <v>31810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55597</v>
+        <v>56596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2487514806517053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1787624311885038</v>
+        <v>0.1844386448514395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3223581429221528</v>
+        <v>0.3281485845388732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -2307,19 +2307,19 @@
         <v>95012</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79644</v>
+        <v>79762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111041</v>
+        <v>111640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3845601755814854</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3223563240851229</v>
+        <v>0.3228358297399342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4494383611811721</v>
+        <v>0.4518593871489879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -2328,19 +2328,19 @@
         <v>137914</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118636</v>
+        <v>119577</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159749</v>
+        <v>157490</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3287297822409596</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2827779675488793</v>
+        <v>0.2850220830679511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3807755874799576</v>
+        <v>0.3753915159217025</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>129568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>116873</v>
+        <v>115874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141639</v>
+        <v>140660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7512485193482947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6776418570778472</v>
+        <v>0.6718514154611273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8212375688114962</v>
+        <v>0.8155613551485605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -2378,19 +2378,19 @@
         <v>152055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136026</v>
+        <v>135427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167423</v>
+        <v>167305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6154398244185145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5505616388188279</v>
+        <v>0.5481406128510121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6776436759148772</v>
+        <v>0.6771641702600657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -2399,19 +2399,19 @@
         <v>281622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259787</v>
+        <v>262046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>300900</v>
+        <v>299959</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6712702177590404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6192244125200427</v>
+        <v>0.6246084840782975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7172220324511207</v>
+        <v>0.7149779169320489</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>41053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29680</v>
+        <v>30668</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53841</v>
+        <v>54252</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2469577982032524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.178540685510681</v>
+        <v>0.1844834604653952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3238820321419216</v>
+        <v>0.3263557193811568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -2524,19 +2524,19 @@
         <v>58834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46252</v>
+        <v>45481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72317</v>
+        <v>72706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.306315807015828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2408087656356319</v>
+        <v>0.2367931744965717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3765118792400183</v>
+        <v>0.3785384879417735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -2545,19 +2545,19 @@
         <v>99887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82580</v>
+        <v>82472</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118167</v>
+        <v>117486</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.278776833838851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2304725672055709</v>
+        <v>0.2301708653733235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3297948513197057</v>
+        <v>0.3278930393095394</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>125182</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112394</v>
+        <v>111983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136555</v>
+        <v>135567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7530422017967475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6761179678580784</v>
+        <v>0.6736442806188435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.821459314489319</v>
+        <v>0.8155165395346047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -2595,19 +2595,19 @@
         <v>133237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119754</v>
+        <v>119365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145819</v>
+        <v>146590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6936841929841719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6234881207599815</v>
+        <v>0.6214615120582264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7591912343643681</v>
+        <v>0.7632068255034282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>241</v>
@@ -2616,19 +2616,19 @@
         <v>258419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240139</v>
+        <v>240820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>275726</v>
+        <v>275834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.721223166161149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6702051486802942</v>
+        <v>0.6721069606904606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7695274327944291</v>
+        <v>0.7698291346266766</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>16994</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9652</v>
+        <v>10069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26088</v>
+        <v>25532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2176057409589313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1235903646987958</v>
+        <v>0.1289245084161905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3340509344791684</v>
+        <v>0.3269272449717285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>28156</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20404</v>
+        <v>18541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38476</v>
+        <v>36637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3310488640284754</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2399101544769354</v>
+        <v>0.2179976738727114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4523914116868227</v>
+        <v>0.4307673554871576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -2762,19 +2762,19 @@
         <v>45150</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34743</v>
+        <v>33419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57980</v>
+        <v>58924</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2767447870699898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2129555901366037</v>
+        <v>0.2048415972296064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3553863715139924</v>
+        <v>0.3611728804387204</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>61103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52009</v>
+        <v>52565</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68445</v>
+        <v>68028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7823942590410686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6659490655208313</v>
+        <v>0.6730727550282714</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8764096353012042</v>
+        <v>0.8710754915838094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -2812,19 +2812,19 @@
         <v>56894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46574</v>
+        <v>48413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64646</v>
+        <v>66509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6689511359715246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5476085883131773</v>
+        <v>0.5692326445128424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7600898455230646</v>
+        <v>0.7820023261272886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -2833,19 +2833,19 @@
         <v>117996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105166</v>
+        <v>104222</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128403</v>
+        <v>129727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7232552129300102</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6446136284860075</v>
+        <v>0.6388271195612795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7870444098633962</v>
+        <v>0.7951584027703935</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>148858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126199</v>
+        <v>126825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169950</v>
+        <v>171854</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2685352831800324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2276592929202097</v>
+        <v>0.2287883763049058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3065839203731778</v>
+        <v>0.3100190179265895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -2958,19 +2958,19 @@
         <v>285510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>259609</v>
+        <v>258429</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>311963</v>
+        <v>311739</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3859176937245986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3509082170606634</v>
+        <v>0.3493123798530119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4216739376038535</v>
+        <v>0.4213708903235701</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>394</v>
@@ -2979,19 +2979,19 @@
         <v>434368</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>399296</v>
+        <v>401848</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>470801</v>
+        <v>474067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3356385079564029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3085377539964929</v>
+        <v>0.3105098056363142</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3637901342722571</v>
+        <v>0.3663140769439011</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>405476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>384384</v>
+        <v>382480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428135</v>
+        <v>427509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7314647168199676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6934160796268222</v>
+        <v>0.6899809820734104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7723407070797903</v>
+        <v>0.7712116236950943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>429</v>
@@ -3029,19 +3029,19 @@
         <v>454311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427858</v>
+        <v>428082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>480212</v>
+        <v>481392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6140823062754014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5783260623961466</v>
+        <v>0.5786291096764299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6490917829393371</v>
+        <v>0.6506876201469881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>796</v>
@@ -3050,19 +3050,19 @@
         <v>859787</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>823354</v>
+        <v>820088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>894859</v>
+        <v>892307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6643614920435971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6362098657277429</v>
+        <v>0.6336859230560989</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.691462246003507</v>
+        <v>0.6894901943636857</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>40354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31248</v>
+        <v>30732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51567</v>
+        <v>51453</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.242436214680666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1877300028619378</v>
+        <v>0.1846264968704016</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3097994260083545</v>
+        <v>0.3091128927953681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -3415,19 +3415,19 @@
         <v>109346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93305</v>
+        <v>93076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126573</v>
+        <v>126883</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4199504249642238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3583428946517199</v>
+        <v>0.3574658411351002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4861143569837744</v>
+        <v>0.4873026661964467</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -3436,19 +3436,19 @@
         <v>149700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129123</v>
+        <v>130399</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170344</v>
+        <v>171138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3507241082974636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3025153285938874</v>
+        <v>0.305503870958804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3990890122808246</v>
+        <v>0.4009500057575082</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>126100</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114887</v>
+        <v>115001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135206</v>
+        <v>135722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.757563785319334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6902005739916455</v>
+        <v>0.690887107204632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8122699971380622</v>
+        <v>0.8153735031295984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -3486,19 +3486,19 @@
         <v>151032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133805</v>
+        <v>133495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167073</v>
+        <v>167302</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5800495750357763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5138856430162262</v>
+        <v>0.5126973338035533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6416571053482801</v>
+        <v>0.6425341588648997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -3507,19 +3507,19 @@
         <v>277132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>256488</v>
+        <v>255694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297709</v>
+        <v>296433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6492758917025363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6009109877191753</v>
+        <v>0.5990499942424919</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6974846714061126</v>
+        <v>0.6944961290411962</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>34333</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25352</v>
+        <v>24674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44916</v>
+        <v>43481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2022435154282898</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1493360585900209</v>
+        <v>0.1453465851531678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2645805126623232</v>
+        <v>0.2561284441776133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3632,19 +3632,19 @@
         <v>76534</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61974</v>
+        <v>62403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92306</v>
+        <v>92728</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3466112998429212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2806730404274477</v>
+        <v>0.2826145698366032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4180420524440295</v>
+        <v>0.4199527310448337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -3653,19 +3653,19 @@
         <v>110867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92566</v>
+        <v>93182</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128541</v>
+        <v>130483</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2838607948294197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2370047064987872</v>
+        <v>0.2385819224178346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3291137134914895</v>
+        <v>0.3340861401484547</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>135430</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124847</v>
+        <v>126282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144411</v>
+        <v>145089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7977564845717102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7354194873376765</v>
+        <v>0.7438715558223852</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8506639414099789</v>
+        <v>0.8546534148468321</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -3703,19 +3703,19 @@
         <v>144271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128499</v>
+        <v>128077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158831</v>
+        <v>158402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6533887001570788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5819579475559705</v>
+        <v>0.5800472689551663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7193269595725522</v>
+        <v>0.7173854301633967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>270</v>
@@ -3724,19 +3724,19 @@
         <v>279701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>262027</v>
+        <v>260085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>298002</v>
+        <v>297386</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7161392051705803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6708862865085105</v>
+        <v>0.6659138598515454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7629952935012126</v>
+        <v>0.7614180775821655</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>29237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20514</v>
+        <v>21328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39683</v>
+        <v>40117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.18769324797928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1316963999254601</v>
+        <v>0.1369161689105948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.254749348784479</v>
+        <v>0.2575409644861263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3849,19 +3849,19 @@
         <v>65777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50778</v>
+        <v>52267</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80664</v>
+        <v>82346</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3572789972344755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2758071625437165</v>
+        <v>0.2838980676958404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4381414552192922</v>
+        <v>0.4472770630452587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3870,19 +3870,19 @@
         <v>95014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77502</v>
+        <v>78453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113259</v>
+        <v>113865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.279555081490419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2280285839772311</v>
+        <v>0.2308261891112905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3332340740809538</v>
+        <v>0.3350185066882589</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>126534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116088</v>
+        <v>115654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135257</v>
+        <v>134443</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.81230675202072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7452506512155211</v>
+        <v>0.7424590355138737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8683036000745399</v>
+        <v>0.8630838310894052</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -3920,19 +3920,19 @@
         <v>118329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103442</v>
+        <v>101760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133328</v>
+        <v>131839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6427210027655246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.561858544780708</v>
+        <v>0.5527229369547411</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7241928374562835</v>
+        <v>0.7161019323041595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -3941,19 +3941,19 @@
         <v>244863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226618</v>
+        <v>226012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>262375</v>
+        <v>261424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.720444918509581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6667659259190462</v>
+        <v>0.6649814933117411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7719714160227689</v>
+        <v>0.7691738108887095</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>17883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11748</v>
+        <v>11183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26424</v>
+        <v>25720</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.203343357562753</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1335809370103639</v>
+        <v>0.1271548556235385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3004623717877506</v>
+        <v>0.2924523517981619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4066,19 +4066,19 @@
         <v>24718</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16465</v>
+        <v>15272</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35992</v>
+        <v>34806</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2320141006008514</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1545507826927563</v>
+        <v>0.1433478340594486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3378372193984879</v>
+        <v>0.3267018250781331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -4087,19 +4087,19 @@
         <v>42601</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31408</v>
+        <v>30865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55550</v>
+        <v>55131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2190490758874918</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1614989144366328</v>
+        <v>0.158703268738195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2856298351456157</v>
+        <v>0.283479004716213</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>70062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61521</v>
+        <v>62225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76197</v>
+        <v>76762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.796656642437247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6995376282122494</v>
+        <v>0.7075476482018382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8664190629896362</v>
+        <v>0.8728451443764617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -4137,19 +4137,19 @@
         <v>81818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70544</v>
+        <v>71730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90071</v>
+        <v>91264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7679858993991486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6621627806015121</v>
+        <v>0.6732981749218672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8454492173072439</v>
+        <v>0.8566521659405514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -4158,19 +4158,19 @@
         <v>151880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>138931</v>
+        <v>139350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163073</v>
+        <v>163616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7809509241125082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7143701648543843</v>
+        <v>0.7165209952837868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8385010855633673</v>
+        <v>0.8412967312618049</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>121808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104640</v>
+        <v>103546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142123</v>
+        <v>140323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2100382944212018</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1804347330651051</v>
+        <v>0.1785471688419387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2450676024383951</v>
+        <v>0.241963821349909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>222</v>
@@ -4283,19 +4283,19 @@
         <v>276374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>246911</v>
+        <v>249627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>306758</v>
+        <v>305978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3580790821089285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.319906246090115</v>
+        <v>0.323424187766749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3974459785708863</v>
+        <v>0.3964346974731873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>358</v>
@@ -4304,19 +4304,19 @@
         <v>398182</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>362755</v>
+        <v>365241</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>429134</v>
+        <v>436268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2945663385365238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2683581481971947</v>
+        <v>0.2701969986443992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.317463273860265</v>
+        <v>0.3227413397304884</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>458126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>437811</v>
+        <v>439611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475294</v>
+        <v>476388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7899617055787982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.754932397561605</v>
+        <v>0.7580361786500911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.819565266934895</v>
+        <v>0.8214528311580613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>428</v>
@@ -4354,19 +4354,19 @@
         <v>495450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>465066</v>
+        <v>465846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>524913</v>
+        <v>522197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6419209178910714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6025540214291137</v>
+        <v>0.6035653025268127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.680093753909885</v>
+        <v>0.676575812233251</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>908</v>
@@ -4375,19 +4375,19 @@
         <v>953576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>922624</v>
+        <v>915490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>989003</v>
+        <v>986517</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7054336614634762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.682536726139735</v>
+        <v>0.6772586602695116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7316418518028054</v>
+        <v>0.7298030013556008</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20717</v>
+        <v>20504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33272</v>
+        <v>33860</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4096575063151405</v>
+        <v>0.4096575063151404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3150079400950698</v>
+        <v>0.3117673471471855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5058967087519558</v>
+        <v>0.5148416729592425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>164</v>
@@ -4740,19 +4740,19 @@
         <v>88311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79163</v>
+        <v>79746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96070</v>
+        <v>96204</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6243581762018248</v>
+        <v>0.6243581762018247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5596841684908401</v>
+        <v>0.563806099896827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6792120545758495</v>
+        <v>0.6801641588833223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -4761,19 +4761,19 @@
         <v>115254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104727</v>
+        <v>104195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126434</v>
+        <v>125636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5562127956133767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5054088902380544</v>
+        <v>0.502843234223144</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6101656345193683</v>
+        <v>0.6063174993627259</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>38826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32496</v>
+        <v>31908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45051</v>
+        <v>45264</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5903424936848598</v>
+        <v>0.5903424936848596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.494103291248044</v>
+        <v>0.4851583270407573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.68499205990493</v>
+        <v>0.6882326528528142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -4811,19 +4811,19 @@
         <v>53132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45373</v>
+        <v>45239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62280</v>
+        <v>61697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3756418237981751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3207879454241503</v>
+        <v>0.3198358411166775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4403158315091599</v>
+        <v>0.4361939001031729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -4832,19 +4832,19 @@
         <v>91958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80778</v>
+        <v>81576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102485</v>
+        <v>103017</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4437872043866235</v>
+        <v>0.4437872043866234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3898343654806315</v>
+        <v>0.3936825006372739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4945911097619451</v>
+        <v>0.4971567657768559</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>55578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45492</v>
+        <v>46060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66210</v>
+        <v>66317</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2791174981766948</v>
+        <v>0.2791174981766949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2284665251343612</v>
+        <v>0.2313176619651921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3325150659275565</v>
+        <v>0.3330489014604731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>252</v>
@@ -4957,19 +4957,19 @@
         <v>131727</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118363</v>
+        <v>117551</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144590</v>
+        <v>143697</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4365181198586074</v>
+        <v>0.4365181198586076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3922323038364096</v>
+        <v>0.3895405107413607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.479142688702541</v>
+        <v>0.476183506616708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>341</v>
@@ -4978,19 +4978,19 @@
         <v>187305</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>170177</v>
+        <v>171355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>202468</v>
+        <v>204236</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3739460460450977</v>
+        <v>0.3739460460450978</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3397499988814648</v>
+        <v>0.3421030842102351</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4042172456008543</v>
+        <v>0.4077486182326164</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>143542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132910</v>
+        <v>132803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153628</v>
+        <v>153060</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.720882501823305</v>
+        <v>0.7208825018233052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6674849340724435</v>
+        <v>0.6669510985395273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7715334748656388</v>
+        <v>0.768682338034808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>315</v>
@@ -5028,19 +5028,19 @@
         <v>170041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>157178</v>
+        <v>158071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>183405</v>
+        <v>184217</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5634818801413926</v>
+        <v>0.5634818801413927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5208573112974587</v>
+        <v>0.5238164933832923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6077676961635904</v>
+        <v>0.6104594892586392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>518</v>
@@ -5049,19 +5049,19 @@
         <v>313583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>298420</v>
+        <v>296652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>330711</v>
+        <v>329533</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6260539539549022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5957827543991457</v>
+        <v>0.5922513817673839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6602500011185353</v>
+        <v>0.6578969157897648</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>39285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30011</v>
+        <v>30324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49347</v>
+        <v>49916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1713167458086483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1308730026506634</v>
+        <v>0.1322377276827393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2151960428469617</v>
+        <v>0.2176733328997439</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -5174,19 +5174,19 @@
         <v>87241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75144</v>
+        <v>77059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97579</v>
+        <v>98530</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3704567970956581</v>
+        <v>0.370456797095658</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3190862666637422</v>
+        <v>0.3272168002429683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4143555218292583</v>
+        <v>0.4183908548180272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -5195,19 +5195,19 @@
         <v>126527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112359</v>
+        <v>111218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142402</v>
+        <v>141543</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2722111404908842</v>
+        <v>0.2722111404908843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2417301289872301</v>
+        <v>0.239276145315804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3063649554017049</v>
+        <v>0.3045178547480608</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>190029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179967</v>
+        <v>179398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199303</v>
+        <v>198990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8286832541913517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7848039571530382</v>
+        <v>0.782326667100256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8691269973493367</v>
+        <v>0.8677622723172607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -5245,19 +5245,19 @@
         <v>148256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>137918</v>
+        <v>136967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160353</v>
+        <v>158438</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6295432029043418</v>
+        <v>0.629543202904342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5856444781707416</v>
+        <v>0.5816091451819728</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6809137333362577</v>
+        <v>0.6727831997570315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -5266,19 +5266,19 @@
         <v>338284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>322409</v>
+        <v>323268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>352452</v>
+        <v>353593</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7277888595091156</v>
+        <v>0.7277888595091159</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6936350445982949</v>
+        <v>0.6954821452519392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.75826987101277</v>
+        <v>0.7607238546841945</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>52917</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42626</v>
+        <v>42765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64530</v>
+        <v>63649</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2515639527951302</v>
+        <v>0.2515639527951301</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2026375174758065</v>
+        <v>0.2033012347001861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3067681633675001</v>
+        <v>0.3025781769477803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -5391,19 +5391,19 @@
         <v>57520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48214</v>
+        <v>47322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67191</v>
+        <v>66942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2786859290618074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.233594842996288</v>
+        <v>0.2292730699221726</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3255375480475369</v>
+        <v>0.3243320241283037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -5412,19 +5412,19 @@
         <v>110438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96766</v>
+        <v>94678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123960</v>
+        <v>123357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2649962481684252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2321898681882652</v>
+        <v>0.2271795490839614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2974428776463478</v>
+        <v>0.2959953092836198</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>157437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145824</v>
+        <v>146705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167728</v>
+        <v>167589</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7484360472048698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6932318366325002</v>
+        <v>0.6974218230522197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7973624825241936</v>
+        <v>0.7966987652998138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>288</v>
@@ -5462,19 +5462,19 @@
         <v>148879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>139208</v>
+        <v>139457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158185</v>
+        <v>159077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7213140709381924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6744624519524629</v>
+        <v>0.6756679758716964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.766405157003712</v>
+        <v>0.7707269300778274</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>512</v>
@@ -5483,19 +5483,19 @@
         <v>306315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292793</v>
+        <v>293396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>319987</v>
+        <v>322075</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7350037518315747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7025571223536522</v>
+        <v>0.7040046907163804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7678101318117349</v>
+        <v>0.7728204509160386</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>174723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157323</v>
+        <v>157907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196912</v>
+        <v>195614</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2479903328302883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2232930973684926</v>
+        <v>0.2241225971964851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2794833188666135</v>
+        <v>0.2776410884186107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>684</v>
@@ -5608,19 +5608,19 @@
         <v>364800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>343911</v>
+        <v>342081</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>387165</v>
+        <v>385798</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4121539665306245</v>
+        <v>0.4121539665306244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3885530962773138</v>
+        <v>0.386485558118693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4374214684421138</v>
+        <v>0.4358771024668945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>951</v>
@@ -5629,19 +5629,19 @@
         <v>539524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>509764</v>
+        <v>510324</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>571399</v>
+        <v>569818</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3393948216443112</v>
+        <v>0.3393948216443113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3206743182560428</v>
+        <v>0.3210266242261733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3594461339257886</v>
+        <v>0.3584519030504147</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>529834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>507645</v>
+        <v>508943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547234</v>
+        <v>546650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7520096671697117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7205166811333866</v>
+        <v>0.7223589115813892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7767069026315073</v>
+        <v>0.775877402803515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>986</v>
@@ -5679,19 +5679,19 @@
         <v>520307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>497942</v>
+        <v>499309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>541196</v>
+        <v>543026</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5878460334693756</v>
+        <v>0.5878460334693755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5625785315578862</v>
+        <v>0.5641228975331055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6114469037226862</v>
+        <v>0.6135144418813072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1730</v>
@@ -5700,19 +5700,19 @@
         <v>1050140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1018265</v>
+        <v>1019846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1079900</v>
+        <v>1079340</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6606051783556888</v>
+        <v>0.6606051783556887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6405538660742114</v>
+        <v>0.6415480969495854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6793256817439574</v>
+        <v>0.678973375773827</v>
       </c>
     </row>
     <row r="18">
